--- a/source/竞技对战表/竞技输入格式2 -- 2024-11-16--me.xlsx
+++ b/source/竞技对战表/竞技输入格式2 -- 2024-11-16--me.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bieren\taekwondo\WTF-Trans\WTF\source\竞技对战表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D031E-B9A9-49F2-A5AD-3227C9DDC8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="14376" windowHeight="10776"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2239,7 +2245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2329,7 +2335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2343,9 +2349,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2382,14 +2385,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2427,7 +2433,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2499,7 +2505,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2672,106 +2678,106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J796"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M131" sqref="M131"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="6.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2793,11 +2799,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2819,11 +2825,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2845,11 +2851,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2871,11 +2877,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2897,11 +2903,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2923,11 +2929,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2949,11 +2955,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2975,11 +2981,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3001,11 +3007,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3027,11 +3033,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3053,11 +3059,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3079,11 +3085,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3105,11 +3111,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3131,11 +3137,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3157,11 +3163,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3183,11 +3189,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3209,11 +3215,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -3235,11 +3241,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3261,11 +3267,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -3287,11 +3293,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -3313,11 +3319,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3339,11 +3345,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3365,11 +3371,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3391,11 +3397,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3411,11 +3417,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3431,11 +3437,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3451,11 +3457,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3471,11 +3477,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3494,11 +3500,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3514,11 +3520,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -3537,11 +3543,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="37" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -3557,11 +3563,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3580,11 +3586,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -3603,11 +3609,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3626,11 +3632,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3649,11 +3655,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -3672,11 +3678,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3695,11 +3701,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3718,11 +3724,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3741,11 +3747,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3764,11 +3770,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3787,11 +3793,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3813,11 +3819,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3839,11 +3845,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3865,11 +3871,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3891,11 +3897,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3917,11 +3923,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3943,11 +3949,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -3966,11 +3972,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    <row r="55" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3989,11 +3995,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="56" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -4012,11 +4018,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="57" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4035,11 +4041,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4058,11 +4064,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -4081,11 +4087,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -4104,11 +4110,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4127,11 +4133,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -4150,11 +4156,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -4173,11 +4179,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -4199,11 +4205,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -4225,11 +4231,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4251,11 +4257,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -4277,11 +4283,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="68" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -4306,11 +4312,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -4335,11 +4341,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+    <row r="70" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -4364,11 +4370,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -4393,11 +4399,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4422,11 +4428,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -4451,11 +4457,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -4480,11 +4486,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4506,11 +4512,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -4532,11 +4538,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -4558,11 +4564,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4584,11 +4590,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -4610,11 +4616,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -4636,11 +4642,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4662,11 +4668,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4688,11 +4694,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4714,11 +4720,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -4740,11 +4746,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4766,11 +4772,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4792,11 +4798,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4818,11 +4824,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4844,11 +4850,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -4870,11 +4876,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -4896,11 +4902,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4922,11 +4928,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4948,11 +4954,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -4974,11 +4980,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -5000,11 +5006,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5026,11 +5032,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -5052,11 +5058,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5078,11 +5084,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5104,11 +5110,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5124,11 +5130,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+    <row r="100" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -5144,11 +5150,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+    <row r="101" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -5167,11 +5173,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -5187,11 +5193,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    <row r="103" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -5210,11 +5216,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+    <row r="104" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -5230,11 +5236,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+    <row r="105" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -5253,11 +5259,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+    <row r="106" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -5276,11 +5282,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -5299,11 +5305,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -5322,11 +5328,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -5345,11 +5351,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+    <row r="110" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -5368,11 +5374,11 @@
         <v>322</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+    <row r="111" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -5391,11 +5397,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -5414,11 +5420,11 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -5437,11 +5443,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -5463,11 +5469,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    <row r="115" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -5486,11 +5492,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+    <row r="116" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -5512,11 +5518,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+    <row r="117" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -5535,11 +5541,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+    <row r="118" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -5561,11 +5567,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    <row r="119" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -5584,11 +5590,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -5610,11 +5616,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+    <row r="121" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -5633,11 +5639,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+    <row r="122" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -5659,11 +5665,11 @@
         <v>353</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+    <row r="123" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -5682,11 +5688,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    <row r="124" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -5708,11 +5714,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -5734,11 +5740,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+    <row r="126" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -5760,11 +5766,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+    <row r="127" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -5786,11 +5792,11 @@
         <v>447</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    <row r="128" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -5812,11 +5818,11 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -5838,11 +5844,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+    <row r="130" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -5861,11 +5867,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+    <row r="131" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -5884,11 +5890,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -5907,11 +5913,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    <row r="133" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -5930,11 +5936,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -5953,11 +5959,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -5976,11 +5982,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+    <row r="136" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -5999,11 +6005,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -6022,11 +6028,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -6045,11 +6051,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+    <row r="139" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -6068,11 +6074,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+    <row r="140" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -6091,11 +6097,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -6114,11 +6120,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -6137,11 +6143,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+    <row r="143" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -6160,11 +6166,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -6183,11 +6189,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -6209,11 +6215,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+    <row r="146" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -6238,11 +6244,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -6264,11 +6270,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    <row r="148" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -6290,11 +6296,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -6316,11 +6322,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -6342,11 +6348,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -6368,11 +6374,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+    <row r="152" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -6394,11 +6400,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -6420,11 +6426,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+    <row r="154" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -6446,11 +6452,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+    <row r="155" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -6472,11 +6478,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
@@ -6498,11 +6504,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
@@ -6524,11 +6530,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
+    <row r="158" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="2" t="s">
@@ -6550,11 +6556,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -6576,11 +6582,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
+    <row r="160" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
@@ -6602,11 +6608,11 @@
         <v>557</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
@@ -6628,11 +6634,11 @@
         <v>557</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+    <row r="162" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
@@ -6654,11 +6660,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -6680,11 +6686,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="11" t="s">
+    <row r="164" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -6706,11 +6712,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+    <row r="165" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
@@ -6732,11 +6738,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
+    <row r="166" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
@@ -6758,11 +6764,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
@@ -6784,11 +6790,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
+    <row r="168" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
@@ -6810,11 +6816,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+    <row r="169" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -6836,11 +6842,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
@@ -6862,11 +6868,11 @@
         <v>593</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
+    <row r="171" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
@@ -6888,11 +6894,11 @@
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11" t="s">
+    <row r="172" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -6914,11 +6920,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
+    <row r="173" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -6940,11 +6946,11 @@
         <v>604</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
+    <row r="174" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D174" s="2" t="s">
@@ -6963,11 +6969,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
+    <row r="175" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D175" s="2" t="s">
@@ -6983,11 +6989,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="11" t="s">
+    <row r="176" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D176" s="2" t="s">
@@ -7006,11 +7012,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D177" s="2" t="s">
@@ -7026,11 +7032,11 @@
         <v>520</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
+    <row r="178" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D178" s="2" t="s">
@@ -7049,11 +7055,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+    <row r="179" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D179" s="2" t="s">
@@ -7069,11 +7075,11 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
+    <row r="180" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D180" s="2" t="s">
@@ -7092,11 +7098,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+    <row r="181" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -7115,11 +7121,11 @@
         <v>542</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
+    <row r="182" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -7138,11 +7144,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
+    <row r="183" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D183" s="2" t="s">
@@ -7161,11 +7167,11 @@
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
+    <row r="184" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D184" s="2" t="s">
@@ -7184,11 +7190,11 @@
         <v>557</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
+    <row r="185" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -7207,11 +7213,11 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+    <row r="186" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -7230,11 +7236,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
+    <row r="187" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -7253,11 +7259,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="11" t="s">
+    <row r="188" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -7276,11 +7282,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="11" t="s">
+    <row r="189" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -7299,11 +7305,11 @@
         <v>572</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="11" t="s">
+    <row r="190" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -7322,11 +7328,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="11" t="s">
+    <row r="191" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -7345,11 +7351,11 @@
         <v>579</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="11" t="s">
+    <row r="192" spans="1:9" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -7368,11 +7374,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="11" t="s">
+    <row r="193" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -7391,11 +7397,11 @@
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="11" t="s">
+    <row r="194" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -7414,11 +7420,11 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
+    <row r="195" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -7437,11 +7443,11 @@
         <v>593</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11" t="s">
+    <row r="196" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -7460,11 +7466,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="11" t="s">
+    <row r="197" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -7486,11 +7492,11 @@
         <v>600</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
+    <row r="198" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -7509,11 +7515,11 @@
         <v>604</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="11" t="s">
+    <row r="199" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -7535,11 +7541,11 @@
         <v>604</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="11" t="s">
+    <row r="200" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -7561,11 +7567,11 @@
         <v>686</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="11" t="s">
+    <row r="201" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -7584,11 +7590,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="11" t="s">
+    <row r="202" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -7607,11 +7613,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="11" t="s">
+    <row r="203" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -7630,11 +7636,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
+    <row r="204" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -7653,11 +7659,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="11" t="s">
+    <row r="205" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -7676,11 +7682,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="11" t="s">
+    <row r="206" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -7699,11 +7705,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="11" t="s">
+    <row r="207" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -7722,11 +7728,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="11" t="s">
+    <row r="208" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -7745,11 +7751,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="11" t="s">
+    <row r="209" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="10" t="s">
         <v>711</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -7768,11 +7774,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
+    <row r="210" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -7791,11 +7797,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="11" t="s">
+    <row r="211" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -7814,11 +7820,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
+    <row r="212" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -7837,11 +7843,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
+    <row r="213" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -7860,11 +7866,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="11" t="s">
+    <row r="214" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -7886,11 +7892,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="11" t="s">
+    <row r="215" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C215" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -7915,11 +7921,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="11" t="s">
+    <row r="216" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="10" t="s">
         <v>197</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -7944,586 +7950,586 @@
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:10" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="12.3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:10" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="12.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
@@ -8532,7 +8538,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.65277777777777779" bottom="0.83333333333333337" header="0.20833333333333334" footer="0.34722222222222221"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"Microsoft YaHei UI"&amp;7——————————————————————————————————————
@@ -8548,12 +8554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8561,12 +8567,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
